--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S1.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909162F3-2D03-4141-AA8D-424B3AE3C99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE41F01-7DE5-46A0-B630-935B3D770575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="293">
   <si>
     <t>transect</t>
   </si>
@@ -116,9 +116,6 @@
     <t>P6050023</t>
   </si>
   <si>
-    <t>Gasteropoda</t>
-  </si>
-  <si>
     <t>P6050024</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>P6050030</t>
   </si>
   <si>
-    <t>Monoplacophora</t>
-  </si>
-  <si>
     <t>P6050031</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
   </si>
   <si>
     <t>P6050037</t>
-  </si>
-  <si>
-    <t>Gatropoda</t>
   </si>
   <si>
     <t>P6050038</t>
@@ -1223,7 +1214,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K8" s="3">
         <v>2</v>
@@ -1480,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
@@ -1507,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -1533,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
@@ -1562,7 +1553,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
@@ -1591,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -1603,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1611,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1649,13 +1640,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>35</v>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K15" s="3">
         <v>12</v>
@@ -1675,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -1704,13 +1695,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="K17" s="3">
         <v>6</v>
@@ -1730,13 +1721,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K18" s="3">
         <v>4</v>
@@ -1756,13 +1747,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K19" s="3">
         <v>4</v>
@@ -1782,13 +1773,13 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>39</v>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K20" s="3">
         <v>3</v>
@@ -1808,13 +1799,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K21" s="3">
         <v>5</v>
@@ -1834,7 +1825,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -1860,16 +1851,16 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>21</v>
@@ -1877,7 +1868,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1889,16 +1880,16 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K24" s="3">
         <v>3</v>
@@ -1906,33 +1897,33 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1944,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>16</v>
@@ -1961,7 +1952,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1973,16 +1964,16 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>21</v>
@@ -1990,7 +1981,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -2002,13 +1993,13 @@
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K28" s="3">
         <v>4</v>
@@ -2016,7 +2007,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -2028,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>16</v>
@@ -2045,7 +2036,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -2057,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>16</v>
@@ -2074,7 +2065,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -2086,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
@@ -2103,7 +2094,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -2115,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>16</v>
@@ -2129,7 +2120,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -2141,13 +2132,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K33" s="3">
         <v>3</v>
@@ -2155,7 +2146,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -2167,16 +2158,16 @@
         <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K34" s="3">
         <v>4</v>
@@ -2184,7 +2175,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -2196,21 +2187,21 @@
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -2222,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>16</v>
@@ -2231,7 +2222,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
@@ -2243,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>16</v>
@@ -2260,7 +2251,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -2272,7 +2263,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>16</v>
@@ -2289,7 +2280,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -2301,7 +2292,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>16</v>
@@ -2315,7 +2306,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
@@ -2327,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>16</v>
@@ -2336,7 +2327,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -2348,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>16</v>
@@ -2360,12 +2351,12 @@
         <v>20</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -2377,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>16</v>
@@ -2394,7 +2385,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
@@ -2406,7 +2397,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>16</v>
@@ -2423,7 +2414,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -2435,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
@@ -2452,7 +2443,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -2464,7 +2455,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>16</v>
@@ -2481,7 +2472,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -2493,7 +2484,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -2510,7 +2501,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -2522,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
@@ -2531,7 +2522,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -2543,21 +2534,21 @@
         <v>14</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -2569,7 +2560,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>16</v>
@@ -2586,7 +2577,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -2598,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>16</v>
@@ -2612,7 +2603,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -2624,7 +2615,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
@@ -2641,7 +2632,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -2653,13 +2644,13 @@
         <v>14</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K52" s="3">
         <v>2</v>
@@ -2667,7 +2658,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -2679,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>16</v>
@@ -2688,7 +2679,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -2700,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>16</v>
@@ -2717,7 +2708,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -2729,7 +2720,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>16</v>
@@ -2746,7 +2737,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
@@ -2758,10 +2749,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>17</v>
@@ -2775,22 +2766,22 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>17</v>
@@ -2799,12 +2790,12 @@
         <v>20</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -2816,10 +2807,10 @@
         <v>14</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
@@ -2828,12 +2819,12 @@
         <v>20</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
@@ -2845,10 +2836,10 @@
         <v>14</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>17</v>
@@ -2862,7 +2853,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
@@ -2874,10 +2865,10 @@
         <v>14</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>17</v>
@@ -2886,12 +2877,12 @@
         <v>20</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
@@ -2903,16 +2894,16 @@
         <v>14</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
@@ -2924,13 +2915,13 @@
         <v>14</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K62" s="3">
         <v>4</v>
@@ -2938,7 +2929,7 @@
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
@@ -2950,10 +2941,10 @@
         <v>14</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>17</v>
@@ -2967,7 +2958,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
@@ -2979,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>17</v>
@@ -2996,7 +2987,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -3008,16 +2999,16 @@
         <v>14</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -3029,13 +3020,13 @@
         <v>14</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K66" s="3">
         <v>3</v>
@@ -3043,7 +3034,7 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
@@ -3055,13 +3046,13 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K67" s="3">
         <v>3</v>
@@ -3069,7 +3060,7 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
@@ -3081,21 +3072,21 @@
         <v>14</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -3107,13 +3098,13 @@
         <v>14</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K69" s="3">
         <v>10</v>
@@ -3121,7 +3112,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
@@ -3133,16 +3124,16 @@
         <v>14</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K70" s="3">
         <v>5</v>
@@ -3150,7 +3141,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
@@ -3162,16 +3153,16 @@
         <v>14</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -3183,13 +3174,13 @@
         <v>14</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K72" s="3">
         <v>3</v>
@@ -3197,7 +3188,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -3209,13 +3200,13 @@
         <v>14</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K73" s="3">
         <v>3</v>
@@ -3223,7 +3214,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
@@ -3235,10 +3226,10 @@
         <v>14</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>17</v>
@@ -3252,7 +3243,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -3264,10 +3255,10 @@
         <v>14</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>17</v>
@@ -3281,7 +3272,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -3293,10 +3284,10 @@
         <v>14</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>17</v>
@@ -3310,7 +3301,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
@@ -3322,13 +3313,13 @@
         <v>14</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K77" s="3">
         <v>3</v>
@@ -3336,7 +3327,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
@@ -3348,10 +3339,10 @@
         <v>14</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>17</v>
@@ -3365,7 +3356,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>12</v>
@@ -3377,10 +3368,10 @@
         <v>14</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>17</v>
@@ -3394,7 +3385,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
@@ -3406,10 +3397,10 @@
         <v>14</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>17</v>
@@ -3423,7 +3414,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -3435,16 +3426,16 @@
         <v>14</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K81" s="3">
         <v>10</v>
@@ -3452,7 +3443,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
@@ -3464,10 +3455,10 @@
         <v>14</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>17</v>
@@ -3481,7 +3472,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>12</v>
@@ -3493,10 +3484,10 @@
         <v>14</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>17</v>
@@ -3510,7 +3501,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>12</v>
@@ -3522,13 +3513,13 @@
         <v>14</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K84" s="3">
         <v>3</v>
@@ -3536,7 +3527,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>12</v>
@@ -3548,13 +3539,13 @@
         <v>14</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>21</v>
@@ -3562,7 +3553,7 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>12</v>
@@ -3574,13 +3565,13 @@
         <v>14</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K86" s="3">
         <v>3</v>
@@ -3588,7 +3579,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>12</v>
@@ -3600,10 +3591,10 @@
         <v>14</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>17</v>
@@ -3617,7 +3608,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>12</v>
@@ -3629,10 +3620,10 @@
         <v>14</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>17</v>
@@ -3646,7 +3637,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -3658,10 +3649,10 @@
         <v>14</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>17</v>
@@ -3675,7 +3666,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>12</v>
@@ -3687,10 +3678,10 @@
         <v>14</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>17</v>
@@ -3701,7 +3692,7 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>12</v>
@@ -3713,10 +3704,10 @@
         <v>14</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>17</v>
@@ -3725,12 +3716,12 @@
         <v>20</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>12</v>
@@ -3742,10 +3733,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>17</v>
@@ -3756,7 +3747,7 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>12</v>
@@ -3768,13 +3759,13 @@
         <v>14</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K93" s="3">
         <v>15</v>
@@ -3782,25 +3773,25 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3808,25 +3799,25 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="F95" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>21</v>
@@ -3834,19 +3825,19 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>16</v>
@@ -3855,19 +3846,19 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>16</v>
@@ -3879,24 +3870,24 @@
         <v>20</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>16</v>
@@ -3910,25 +3901,25 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K99" s="3">
         <v>6</v>
@@ -3936,19 +3927,19 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
@@ -3962,19 +3953,19 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -3988,19 +3979,19 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
@@ -4012,24 +4003,24 @@
         <v>20</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>16</v>
@@ -4041,50 +4032,50 @@
         <v>20</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>16</v>
@@ -4101,25 +4092,25 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K106" s="3">
         <v>3</v>
@@ -4127,19 +4118,19 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>16</v>
@@ -4156,19 +4147,19 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>16</v>
@@ -4185,19 +4176,19 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>16</v>
@@ -4214,19 +4205,19 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>16</v>
@@ -4243,25 +4234,25 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K111" s="3">
         <v>4</v>
@@ -4269,19 +4260,19 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>16</v>
@@ -4298,42 +4289,42 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>16</v>
@@ -4350,25 +4341,25 @@
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K115" s="3">
         <v>3</v>
@@ -4376,19 +4367,19 @@
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>16</v>
@@ -4405,51 +4396,51 @@
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K118" s="3">
         <v>3</v>
@@ -4457,19 +4448,19 @@
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>16</v>
@@ -4486,25 +4477,25 @@
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K120" s="3">
         <v>4</v>
@@ -4512,45 +4503,45 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>16</v>
@@ -4567,88 +4558,88 @@
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>16</v>
@@ -4665,25 +4656,25 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K127" s="3">
         <v>4</v>
@@ -4691,42 +4682,42 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>16</v>
@@ -4743,42 +4734,42 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>16</v>
@@ -4795,134 +4786,134 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>16</v>
@@ -4939,19 +4930,19 @@
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>16</v>
@@ -4968,163 +4959,163 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K145" s="3">
         <v>2</v>
@@ -5132,48 +5123,48 @@
     </row>
     <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K147" s="3" t="s">
         <v>21</v>
@@ -5181,19 +5172,19 @@
     </row>
     <row r="148" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>16</v>
@@ -5205,47 +5196,47 @@
         <v>20</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>16</v>
@@ -5262,51 +5253,51 @@
     </row>
     <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K152" s="3">
         <v>3</v>
@@ -5314,22 +5305,22 @@
     </row>
     <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>17</v>
@@ -5343,48 +5334,48 @@
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>21</v>
@@ -5392,68 +5383,68 @@
     </row>
     <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>17</v>
@@ -5464,160 +5455,160 @@
     </row>
     <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>17</v>
@@ -5631,182 +5622,182 @@
     </row>
     <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G167" s="5"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K173" s="3">
         <v>5</v>
@@ -5814,48 +5805,48 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K175" s="3">
         <v>5</v>
@@ -5863,295 +5854,295 @@
     </row>
     <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>16</v>
@@ -6168,94 +6159,94 @@
     </row>
     <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="F190" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K192" s="3">
         <v>2</v>
@@ -6263,19 +6254,19 @@
     </row>
     <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>16</v>
@@ -6292,22 +6283,22 @@
     </row>
     <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>17</v>
@@ -6321,298 +6312,298 @@
     </row>
     <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>17</v>
@@ -6626,324 +6617,324 @@
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>17</v>
@@ -6957,160 +6948,160 @@
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>17</v>
@@ -7124,22 +7115,22 @@
     </row>
     <row r="229" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>17</v>
@@ -7153,25 +7144,25 @@
     </row>
     <row r="230" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K230" s="3">
         <v>20</v>
@@ -7179,137 +7170,137 @@
     </row>
     <row r="231" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>17</v>
@@ -7318,168 +7309,168 @@
         <v>20</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K243" s="3">
         <v>4</v>
@@ -7487,45 +7478,45 @@
     </row>
     <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>17</v>
@@ -7539,22 +7530,22 @@
     </row>
     <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>17</v>
@@ -7568,22 +7559,22 @@
     </row>
     <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>17</v>
@@ -7597,350 +7588,350 @@
     </row>
     <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K262" s="3">
         <v>2</v>
@@ -7948,25 +7939,25 @@
     </row>
     <row r="263" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K263" s="3">
         <v>3</v>
@@ -7974,25 +7965,25 @@
     </row>
     <row r="264" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S1.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE41F01-7DE5-46A0-B630-935B3D770575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5AD57-EB36-454C-9C47-9D715386FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="289">
   <si>
     <t>transect</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Tridacna</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>P6050019</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>P6050028</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>P6050029</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>P6050042</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>P6050043</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
   </si>
   <si>
     <t>P6050052</t>
-  </si>
-  <si>
-    <t>4,5</t>
   </si>
   <si>
     <t>P6050053</t>
@@ -1214,7 +1202,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1338,8 +1326,8 @@
       <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
+      <c r="K4" s="3">
+        <v>2.5</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1357,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -1384,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>16</v>
@@ -1414,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -1444,13 +1432,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3">
         <v>2</v>
@@ -1471,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
@@ -1498,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -1524,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
@@ -1553,7 +1541,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
@@ -1582,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -1593,8 +1581,8 @@
       <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>31</v>
+      <c r="K13" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1611,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1640,13 +1628,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3">
         <v>12</v>
@@ -1666,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -1695,13 +1683,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="K17" s="3">
         <v>6</v>
@@ -1721,13 +1709,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="3">
         <v>4</v>
@@ -1747,13 +1735,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3">
         <v>4</v>
@@ -1773,13 +1761,13 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20" s="3">
         <v>3</v>
@@ -1799,13 +1787,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21" s="3">
         <v>5</v>
@@ -1825,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -1851,24 +1839,24 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1880,16 +1868,16 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24" s="3">
         <v>3</v>
@@ -1897,33 +1885,33 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="F25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1935,7 +1923,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>16</v>
@@ -1952,7 +1940,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1964,24 +1952,24 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -1993,13 +1981,13 @@
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28" s="3">
         <v>4</v>
@@ -2007,7 +1995,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -2019,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>16</v>
@@ -2036,7 +2024,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -2048,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>16</v>
@@ -2065,7 +2053,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -2077,7 +2065,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
@@ -2094,7 +2082,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -2106,7 +2094,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>16</v>
@@ -2120,7 +2108,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -2132,13 +2120,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K33" s="3">
         <v>3</v>
@@ -2146,7 +2134,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -2158,16 +2146,16 @@
         <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K34" s="3">
         <v>4</v>
@@ -2175,7 +2163,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -2187,21 +2175,21 @@
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="K35" s="3">
+        <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -2213,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>16</v>
@@ -2222,7 +2210,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
@@ -2234,7 +2222,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>16</v>
@@ -2251,7 +2239,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -2263,7 +2251,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>16</v>
@@ -2280,7 +2268,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -2292,7 +2280,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>16</v>
@@ -2306,7 +2294,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
@@ -2318,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>16</v>
@@ -2327,7 +2315,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -2339,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>16</v>
@@ -2350,13 +2338,13 @@
       <c r="H41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>47</v>
+      <c r="K41" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -2368,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>16</v>
@@ -2385,7 +2373,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
@@ -2397,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>16</v>
@@ -2414,7 +2402,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -2426,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
@@ -2443,7 +2431,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -2455,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>16</v>
@@ -2472,7 +2460,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -2484,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
@@ -2501,7 +2489,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -2513,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
@@ -2522,7 +2510,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -2534,21 +2522,21 @@
         <v>14</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -2560,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>16</v>
@@ -2577,7 +2565,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -2589,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>16</v>
@@ -2603,7 +2591,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -2615,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>16</v>
@@ -2626,13 +2614,13 @@
       <c r="H51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>21</v>
+      <c r="K51" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -2644,13 +2632,13 @@
         <v>14</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K52" s="3">
         <v>2</v>
@@ -2658,7 +2646,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -2670,7 +2658,7 @@
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>16</v>
@@ -2679,7 +2667,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -2691,7 +2679,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>16</v>
@@ -2708,7 +2696,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -2720,7 +2708,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>16</v>
@@ -2737,7 +2725,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
@@ -2749,10 +2737,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>17</v>
@@ -2766,7 +2754,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -2778,10 +2766,10 @@
         <v>14</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>17</v>
@@ -2789,28 +2777,28 @@
       <c r="H57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>47</v>
+      <c r="K57" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F58" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
@@ -2818,28 +2806,28 @@
       <c r="H58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>31</v>
+      <c r="K58" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>17</v>
@@ -2853,7 +2841,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
@@ -2865,10 +2853,10 @@
         <v>14</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>17</v>
@@ -2876,13 +2864,13 @@
       <c r="H60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>31</v>
+      <c r="K60" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
@@ -2894,16 +2882,16 @@
         <v>14</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
@@ -2915,13 +2903,13 @@
         <v>14</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K62" s="3">
         <v>4</v>
@@ -2929,7 +2917,7 @@
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
@@ -2941,10 +2929,10 @@
         <v>14</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>17</v>
@@ -2958,7 +2946,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
@@ -2970,10 +2958,10 @@
         <v>14</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>17</v>
@@ -2987,7 +2975,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -2999,16 +2987,16 @@
         <v>14</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -3020,13 +3008,13 @@
         <v>14</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K66" s="3">
         <v>3</v>
@@ -3034,7 +3022,7 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
@@ -3046,13 +3034,13 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K67" s="3">
         <v>3</v>
@@ -3060,7 +3048,7 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
@@ -3072,21 +3060,21 @@
         <v>14</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="K68" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -3098,13 +3086,13 @@
         <v>14</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K69" s="3">
         <v>10</v>
@@ -3112,7 +3100,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
@@ -3124,16 +3112,16 @@
         <v>14</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70" s="3">
         <v>5</v>
@@ -3141,7 +3129,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
@@ -3153,16 +3141,16 @@
         <v>14</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -3174,13 +3162,13 @@
         <v>14</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K72" s="3">
         <v>3</v>
@@ -3188,7 +3176,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -3200,13 +3188,13 @@
         <v>14</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K73" s="3">
         <v>3</v>
@@ -3214,7 +3202,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
@@ -3226,10 +3214,10 @@
         <v>14</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>17</v>
@@ -3243,7 +3231,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -3255,10 +3243,10 @@
         <v>14</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>17</v>
@@ -3272,7 +3260,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -3284,10 +3272,10 @@
         <v>14</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>17</v>
@@ -3301,7 +3289,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
@@ -3313,13 +3301,13 @@
         <v>14</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K77" s="3">
         <v>3</v>
@@ -3327,7 +3315,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
@@ -3339,10 +3327,10 @@
         <v>14</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>17</v>
@@ -3356,7 +3344,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>12</v>
@@ -3368,10 +3356,10 @@
         <v>14</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>17</v>
@@ -3385,7 +3373,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
@@ -3397,10 +3385,10 @@
         <v>14</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>17</v>
@@ -3414,7 +3402,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -3426,16 +3414,16 @@
         <v>14</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K81" s="3">
         <v>10</v>
@@ -3443,7 +3431,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
@@ -3455,10 +3443,10 @@
         <v>14</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>17</v>
@@ -3472,7 +3460,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>12</v>
@@ -3484,10 +3472,10 @@
         <v>14</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>17</v>
@@ -3495,13 +3483,13 @@
       <c r="H83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>21</v>
+      <c r="K83" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>12</v>
@@ -3513,13 +3501,13 @@
         <v>14</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K84" s="3">
         <v>3</v>
@@ -3527,7 +3515,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>12</v>
@@ -3539,21 +3527,21 @@
         <v>14</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="K85" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>12</v>
@@ -3565,13 +3553,13 @@
         <v>14</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K86" s="3">
         <v>3</v>
@@ -3579,7 +3567,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>12</v>
@@ -3591,10 +3579,10 @@
         <v>14</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>17</v>
@@ -3608,7 +3596,7 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>12</v>
@@ -3620,10 +3608,10 @@
         <v>14</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>17</v>
@@ -3637,7 +3625,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -3649,10 +3637,10 @@
         <v>14</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>17</v>
@@ -3666,7 +3654,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>12</v>
@@ -3678,10 +3666,10 @@
         <v>14</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>17</v>
@@ -3692,7 +3680,7 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>12</v>
@@ -3704,10 +3692,10 @@
         <v>14</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>17</v>
@@ -3715,13 +3703,13 @@
       <c r="H91" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>31</v>
+      <c r="K91" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>12</v>
@@ -3733,10 +3721,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>17</v>
@@ -3747,7 +3735,7 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>12</v>
@@ -3759,13 +3747,13 @@
         <v>14</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K93" s="3">
         <v>15</v>
@@ -3773,25 +3761,25 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3799,45 +3787,45 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F95" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="K95" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>16</v>
@@ -3846,19 +3834,19 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>16</v>
@@ -3869,25 +3857,25 @@
       <c r="H97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K97" s="3" t="s">
-        <v>31</v>
+      <c r="K97" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>16</v>
@@ -3901,25 +3889,25 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K99" s="3">
         <v>6</v>
@@ -3927,19 +3915,19 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
@@ -3953,19 +3941,19 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -3979,19 +3967,19 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
@@ -4002,25 +3990,25 @@
       <c r="H102" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>47</v>
+      <c r="K102" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>16</v>
@@ -4031,51 +4019,51 @@
       <c r="H103" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K103" s="3" t="s">
-        <v>47</v>
+      <c r="K103" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>16</v>
@@ -4092,25 +4080,25 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K106" s="3">
         <v>3</v>
@@ -4118,19 +4106,19 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>16</v>
@@ -4147,19 +4135,19 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>16</v>
@@ -4176,19 +4164,19 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>16</v>
@@ -4199,25 +4187,25 @@
       <c r="H109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K109" s="3" t="s">
-        <v>21</v>
+      <c r="K109" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>16</v>
@@ -4234,25 +4222,25 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K111" s="3">
         <v>4</v>
@@ -4260,19 +4248,19 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>16</v>
@@ -4289,42 +4277,42 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>16</v>
@@ -4341,25 +4329,25 @@
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K115" s="3">
         <v>3</v>
@@ -4367,19 +4355,19 @@
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>16</v>
@@ -4396,51 +4384,51 @@
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="K117" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K118" s="3">
         <v>3</v>
@@ -4448,19 +4436,19 @@
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>16</v>
@@ -4471,31 +4459,31 @@
       <c r="H119" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K119" s="3" t="s">
-        <v>21</v>
+      <c r="K119" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K120" s="3">
         <v>4</v>
@@ -4503,45 +4491,45 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="K121" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>16</v>
@@ -4558,88 +4546,88 @@
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>16</v>
@@ -4656,25 +4644,25 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K127" s="3">
         <v>4</v>
@@ -4682,42 +4670,42 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>16</v>
@@ -4734,42 +4722,42 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F130" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>16</v>
@@ -4780,140 +4768,140 @@
       <c r="H131" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K131" s="3" t="s">
-        <v>21</v>
+      <c r="K131" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>16</v>
@@ -4930,19 +4918,19 @@
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>16</v>
@@ -4959,163 +4947,163 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K145" s="3">
         <v>2</v>
@@ -5123,68 +5111,68 @@
     </row>
     <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="K147" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>16</v>
@@ -5195,48 +5183,48 @@
       <c r="H148" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K148" s="3" t="s">
-        <v>47</v>
+      <c r="K148" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>16</v>
@@ -5247,57 +5235,57 @@
       <c r="H150" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K150" s="3" t="s">
-        <v>21</v>
+      <c r="K150" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K152" s="3">
         <v>3</v>
@@ -5305,22 +5293,22 @@
     </row>
     <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>17</v>
@@ -5328,123 +5316,123 @@
       <c r="H153" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K153" s="3" t="s">
-        <v>21</v>
+      <c r="K153" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K155" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="K155" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>17</v>
@@ -5455,160 +5443,160 @@
     </row>
     <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>17</v>
@@ -5622,182 +5610,182 @@
     </row>
     <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G167" s="5"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K173" s="3">
         <v>5</v>
@@ -5805,48 +5793,48 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K175" s="3">
         <v>5</v>
@@ -5854,295 +5842,295 @@
     </row>
     <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>16</v>
@@ -6159,94 +6147,94 @@
     </row>
     <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="F191" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K192" s="3">
         <v>2</v>
@@ -6254,19 +6242,19 @@
     </row>
     <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>16</v>
@@ -6277,28 +6265,28 @@
       <c r="H193" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K193" s="3" t="s">
-        <v>21</v>
+      <c r="K193" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>17</v>
@@ -6312,298 +6300,298 @@
     </row>
     <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>17</v>
@@ -6617,324 +6605,324 @@
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K219" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="K219" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>17</v>
@@ -6942,166 +6930,166 @@
       <c r="H221" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K221" s="3" t="s">
-        <v>21</v>
+      <c r="K221" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G228" s="3" t="s">
         <v>17</v>
@@ -7115,22 +7103,22 @@
     </row>
     <row r="229" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G229" s="3" t="s">
         <v>17</v>
@@ -7138,31 +7126,31 @@
       <c r="H229" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K229" s="3" t="s">
-        <v>21</v>
+      <c r="K229" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K230" s="3">
         <v>20</v>
@@ -7170,137 +7158,137 @@
     </row>
     <row r="231" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>17</v>
@@ -7308,169 +7296,169 @@
       <c r="H236" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K236" s="3" t="s">
-        <v>31</v>
+      <c r="K236" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K243" s="3">
         <v>4</v>
@@ -7478,45 +7466,45 @@
     </row>
     <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>17</v>
@@ -7530,22 +7518,22 @@
     </row>
     <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>17</v>
@@ -7559,22 +7547,22 @@
     </row>
     <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>17</v>
@@ -7588,350 +7576,350 @@
     </row>
     <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K251" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="K251" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K262" s="3">
         <v>2</v>
@@ -7939,25 +7927,25 @@
     </row>
     <row r="263" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K263" s="3">
         <v>3</v>
@@ -7965,25 +7953,25 @@
     </row>
     <row r="264" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
